--- a/new_desc.xlsx
+++ b/new_desc.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlphilip/Dropbox/10. Semester/Social Data Science/three_drengz/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963ECA9A-D89E-F74B-8C32-F72EE783D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24920" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Age</t>
   </si>
@@ -188,13 +194,28 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Price (m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,14 +263,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,11 +298,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +384,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,6 +436,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,14 +629,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:L43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -858,21 +949,21 @@
         <v>541</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B3">
-        <v>23.97781885397412</v>
+        <v>23.977818853974121</v>
       </c>
       <c r="C3">
-        <v>22.55637707948244</v>
+        <v>22.556377079482441</v>
       </c>
       <c r="D3">
         <v>18.10351201478743</v>
       </c>
       <c r="E3">
-        <v>1617.329020332717</v>
+        <v>1617.3290203327169</v>
       </c>
       <c r="F3">
         <v>17.97024029574861</v>
@@ -881,34 +972,34 @@
         <v>3.033271719038817</v>
       </c>
       <c r="H3">
-        <v>1.833641404805915</v>
+        <v>1.8336414048059151</v>
       </c>
       <c r="I3">
         <v>2.737523105360443</v>
       </c>
       <c r="J3">
-        <v>0.2957486136783734</v>
+        <v>0.29574861367837341</v>
       </c>
       <c r="K3">
-        <v>0.3696857670979667</v>
+        <v>0.36968576709796669</v>
       </c>
       <c r="L3">
-        <v>3.299445471349353</v>
+        <v>3.2994454713493528</v>
       </c>
       <c r="M3">
         <v>0.1478743068391867</v>
       </c>
       <c r="N3">
-        <v>0.2627726432532344</v>
+        <v>0.26277264325323441</v>
       </c>
       <c r="O3">
-        <v>0.2497597042513862</v>
+        <v>0.24975970425138619</v>
       </c>
       <c r="P3">
         <v>2.921626617375229</v>
       </c>
       <c r="Q3">
-        <v>2.635489833641404</v>
+        <v>2.6354898336414041</v>
       </c>
       <c r="R3">
         <v>1.745841035120149</v>
@@ -917,52 +1008,52 @@
         <v>4.384288354898338</v>
       </c>
       <c r="T3">
-        <v>0.2611460258780036</v>
+        <v>0.26114602587800362</v>
       </c>
       <c r="U3">
-        <v>2019.086876155268</v>
+        <v>2019.0868761552681</v>
       </c>
       <c r="V3">
-        <v>639.28280961183</v>
+        <v>639.28280961182998</v>
       </c>
       <c r="W3">
-        <v>801.8040665434381</v>
+        <v>801.80406654343813</v>
       </c>
       <c r="X3">
-        <v>77.95918367346938</v>
+        <v>77.959183673469383</v>
       </c>
       <c r="Y3">
-        <v>12050.48059149723</v>
+        <v>12050.480591497229</v>
       </c>
       <c r="Z3">
         <v>3692.817005545287</v>
       </c>
       <c r="AA3">
-        <v>0.08780036968576702</v>
+        <v>8.7800369685767016E-2</v>
       </c>
       <c r="AB3">
         <v>16.93345656192237</v>
       </c>
       <c r="AC3">
-        <v>49.59519408502773</v>
+        <v>49.595194085027728</v>
       </c>
       <c r="AD3">
         <v>14.84842883548983</v>
       </c>
       <c r="AE3">
-        <v>4.070240295748613</v>
+        <v>4.0702402957486132</v>
       </c>
       <c r="AF3">
-        <v>58.99075785582255</v>
+        <v>58.990757855822551</v>
       </c>
       <c r="AG3">
         <v>30.1275415896488</v>
       </c>
       <c r="AH3">
-        <v>19.00369685767098</v>
+        <v>19.003696857670981</v>
       </c>
       <c r="AI3">
-        <v>14.60998151571165</v>
+        <v>14.609981515711651</v>
       </c>
       <c r="AJ3">
         <v>11.58410351201479</v>
@@ -971,150 +1062,150 @@
         <v>3.933456561922366</v>
       </c>
       <c r="AL3">
-        <v>34.56223506743737</v>
+        <v>34.562235067437371</v>
       </c>
       <c r="AM3">
         <v>17.50092421441774</v>
       </c>
       <c r="AN3">
-        <v>276.6118299445471</v>
+        <v>276.61182994454708</v>
       </c>
       <c r="AO3">
-        <v>78.94454713493531</v>
+        <v>78.944547134935306</v>
       </c>
       <c r="AP3">
-        <v>28.98435754189945</v>
+        <v>28.984357541899449</v>
       </c>
       <c r="AQ3">
-        <v>26.90757855822551</v>
+        <v>26.907578558225509</v>
       </c>
       <c r="AR3">
-        <v>5.707948243992607</v>
+        <v>5.7079482439926066</v>
       </c>
       <c r="AS3">
-        <v>0.1127541589648798</v>
+        <v>0.11275415896487979</v>
       </c>
       <c r="AT3">
-        <v>21.1996303142329</v>
+        <v>21.199630314232898</v>
       </c>
       <c r="AU3">
-        <v>19.21441774491682</v>
+        <v>19.214417744916819</v>
       </c>
       <c r="AV3">
-        <v>49.34195933456562</v>
+        <v>49.341959334565622</v>
       </c>
       <c r="AW3">
-        <v>36.45101663585952</v>
+        <v>36.451016635859517</v>
       </c>
       <c r="AX3">
-        <v>0.3493530499075785</v>
+        <v>0.34935304990757848</v>
       </c>
       <c r="AY3">
         <v>15.17231053604436</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B4">
-        <v>3.365878297751349</v>
+        <v>3.3658782977513488</v>
       </c>
       <c r="C4">
         <v>10.28749065064836</v>
       </c>
       <c r="D4">
-        <v>11.00876782952536</v>
+        <v>11.008767829525359</v>
       </c>
       <c r="E4">
-        <v>943.1955626077377</v>
+        <v>943.19556260773766</v>
       </c>
       <c r="F4">
         <v>10.47998010925112</v>
       </c>
       <c r="G4">
-        <v>4.423297142332332</v>
+        <v>4.4232971423323324</v>
       </c>
       <c r="H4">
         <v>2.39328834932676</v>
       </c>
       <c r="I4">
-        <v>3.844844619737992</v>
+        <v>3.8448446197379922</v>
       </c>
       <c r="J4">
-        <v>0.9033684103598248</v>
+        <v>0.90336841035982485</v>
       </c>
       <c r="K4">
         <v>1.055903024605539</v>
       </c>
       <c r="L4">
-        <v>2.841325275563881</v>
+        <v>2.8413252755638809</v>
       </c>
       <c r="M4">
-        <v>0.3900855923475742</v>
+        <v>0.39008559234757417</v>
       </c>
       <c r="N4">
-        <v>0.3076188148508193</v>
+        <v>0.30761881485081932</v>
       </c>
       <c r="O4">
-        <v>0.2940611827291394</v>
+        <v>0.29406118272913939</v>
       </c>
       <c r="P4">
-        <v>4.007677116202683</v>
+        <v>4.0076771162026832</v>
       </c>
       <c r="Q4">
         <v>3.453269678519423</v>
       </c>
       <c r="R4">
-        <v>1.963492326296212</v>
+        <v>1.9634923262962121</v>
       </c>
       <c r="S4">
-        <v>4.798783883562784</v>
+        <v>4.7987838835627841</v>
       </c>
       <c r="T4">
-        <v>0.2243801728546622</v>
+        <v>0.22438017285466219</v>
       </c>
       <c r="U4">
         <v>1.496240239116895</v>
       </c>
       <c r="V4">
-        <v>486.935906745454</v>
+        <v>486.93590674545402</v>
       </c>
       <c r="W4">
-        <v>576.8727012009151</v>
+        <v>576.87270120091512</v>
       </c>
       <c r="X4">
-        <v>9.0161092962356</v>
+        <v>9.0161092962355998</v>
       </c>
       <c r="Y4">
         <v>10068.29470638052</v>
       </c>
       <c r="Z4">
-        <v>3414.705915129646</v>
+        <v>3414.7059151296462</v>
       </c>
       <c r="AA4">
-        <v>1.225077081807603</v>
+        <v>1.2250770818076031</v>
       </c>
       <c r="AB4">
-        <v>17.1365758084123</v>
+        <v>17.136575808412299</v>
       </c>
       <c r="AC4">
-        <v>47.63099573427144</v>
+        <v>47.630995734271437</v>
       </c>
       <c r="AD4">
-        <v>15.86899907953019</v>
+        <v>15.868999079530189</v>
       </c>
       <c r="AE4">
-        <v>5.996500656827799</v>
+        <v>5.9965006568277994</v>
       </c>
       <c r="AF4">
-        <v>49.49775441575474</v>
+        <v>49.497754415754741</v>
       </c>
       <c r="AG4">
-        <v>22.98752478218769</v>
+        <v>22.987524782187691</v>
       </c>
       <c r="AH4">
-        <v>14.91146666695757</v>
+        <v>14.911466666957571</v>
       </c>
       <c r="AI4">
         <v>13.03248832866138</v>
@@ -1123,10 +1214,10 @@
         <v>10.02399189446882</v>
       </c>
       <c r="AK4">
-        <v>3.58226196806318</v>
+        <v>3.5822619680631802</v>
       </c>
       <c r="AL4">
-        <v>17.67319042673662</v>
+        <v>17.673190426736621</v>
       </c>
       <c r="AM4">
         <v>14.47035600280622</v>
@@ -1135,40 +1226,40 @@
         <v>187.4872266478161</v>
       </c>
       <c r="AO4">
-        <v>51.63311341345545</v>
+        <v>51.633113413455447</v>
       </c>
       <c r="AP4">
-        <v>7.357741456086367</v>
+        <v>7.3577414560863668</v>
       </c>
       <c r="AQ4">
-        <v>19.20384697802478</v>
+        <v>19.203846978024782</v>
       </c>
       <c r="AR4">
         <v>7.468186331285386</v>
       </c>
       <c r="AS4">
-        <v>0.3803555751193056</v>
+        <v>0.38035557511930562</v>
       </c>
       <c r="AT4">
-        <v>15.38038914440886</v>
+        <v>15.380389144408859</v>
       </c>
       <c r="AU4">
         <v>18.18755819853687</v>
       </c>
       <c r="AV4">
-        <v>38.30167140543862</v>
+        <v>38.301671405438618</v>
       </c>
       <c r="AW4">
         <v>46.75325205446395</v>
       </c>
       <c r="AX4">
-        <v>0.7315284272943546</v>
+        <v>0.73152842729435463</v>
       </c>
       <c r="AY4">
         <v>17.33264244145677</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1320,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1340,7 +1431,7 @@
         <v>785</v>
       </c>
       <c r="F6">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1379,7 +1470,7 @@
         <v>0.3</v>
       </c>
       <c r="S6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T6">
         <v>0.09</v>
@@ -1394,7 +1485,7 @@
         <v>341</v>
       </c>
       <c r="X6">
-        <v>72.34999999999999</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="Y6">
         <v>4125</v>
@@ -1478,7 +1569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1591,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="AL7">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AM7">
         <v>14</v>
@@ -1633,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1758,7 +1849,7 @@
         <v>112</v>
       </c>
       <c r="AP8">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AQ8">
         <v>40</v>
@@ -1788,7 +1879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1941,6 +2032,903 @@
       </c>
       <c r="AY9">
         <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15.17231053604436</v>
+      </c>
+      <c r="F14" s="5">
+        <v>17.33264244145677</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5">
+        <v>20</v>
+      </c>
+      <c r="K14" s="5">
+        <v>120</v>
+      </c>
+      <c r="L14" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>23.977818853974121</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3.3658782977513488</v>
+      </c>
+      <c r="G15" s="5">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5">
+        <v>22</v>
+      </c>
+      <c r="I15" s="5">
+        <v>24</v>
+      </c>
+      <c r="J15" s="5">
+        <v>26</v>
+      </c>
+      <c r="K15" s="5">
+        <v>35</v>
+      </c>
+      <c r="L15" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>22.556377079482441</v>
+      </c>
+      <c r="F16" s="5">
+        <v>10.28749065064836</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
+        <v>24</v>
+      </c>
+      <c r="J16" s="5">
+        <v>31</v>
+      </c>
+      <c r="K16" s="5">
+        <v>38</v>
+      </c>
+      <c r="L16" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>18.10351201478743</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11.008767829525359</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>9</v>
+      </c>
+      <c r="I17" s="5">
+        <v>17</v>
+      </c>
+      <c r="J17" s="5">
+        <v>28</v>
+      </c>
+      <c r="K17" s="5">
+        <v>38</v>
+      </c>
+      <c r="L17" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5">
+        <v>17.97024029574861</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10.47998010925112</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I18" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="J18" s="5">
+        <v>27.2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>38</v>
+      </c>
+      <c r="L18" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3.033271719038817</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4.4232971423323324</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>35</v>
+      </c>
+      <c r="L19" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.8336414048059151</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2.39328834932676</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>15</v>
+      </c>
+      <c r="L20" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.737523105360443</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3.8448446197379922</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
+      <c r="K21" s="5">
+        <v>30</v>
+      </c>
+      <c r="L21" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.29574861367837341</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.90336841035982485</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.36968576709796669</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1.055903024605539</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>8</v>
+      </c>
+      <c r="L23" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3.2994454713493528</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2.8413252755638809</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5">
+        <v>16</v>
+      </c>
+      <c r="L24" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.1478743068391867</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.39008559234757417</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.26277264325323441</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.30761881485081932</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3.33</v>
+      </c>
+      <c r="L26" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.24975970425138619</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.29406118272913939</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="K27" s="5">
+        <v>3.33</v>
+      </c>
+      <c r="L27" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2.921626617375229</v>
+      </c>
+      <c r="F28" s="5">
+        <v>4.0076771162026832</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="K28" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="L28" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.6354898336414041</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3.453269678519423</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="K29" s="5">
+        <v>28.9</v>
+      </c>
+      <c r="L29" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.745841035120149</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.9634923262962121</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="K30" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="L30" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="5">
+        <v>77.959183673469383</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9.0161092962355998</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="I31" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="J31" s="5">
+        <v>84.05</v>
+      </c>
+      <c r="K31" s="5">
+        <v>100</v>
+      </c>
+      <c r="L31" s="6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8.7800369685767016E-2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.2250770818076031</v>
+      </c>
+      <c r="G32" s="5">
+        <v>-4.8</v>
+      </c>
+      <c r="H32" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K32" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="L32" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="5">
+        <v>16.93345656192237</v>
+      </c>
+      <c r="F33" s="5">
+        <v>17.136575808412299</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5">
+        <v>12</v>
+      </c>
+      <c r="J33" s="5">
+        <v>24</v>
+      </c>
+      <c r="K33" s="5">
+        <v>94</v>
+      </c>
+      <c r="L33" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="5">
+        <v>49.595194085027728</v>
+      </c>
+      <c r="F34" s="5">
+        <v>47.630995734271437</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>16</v>
+      </c>
+      <c r="I34" s="5">
+        <v>36</v>
+      </c>
+      <c r="J34" s="5">
+        <v>72</v>
+      </c>
+      <c r="K34" s="5">
+        <v>442</v>
+      </c>
+      <c r="L34" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="5">
+        <v>34.562235067437371</v>
+      </c>
+      <c r="F35" s="5">
+        <v>17.673190426736621</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>23.25</v>
+      </c>
+      <c r="I35" s="5">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J35" s="5">
+        <v>46.2</v>
+      </c>
+      <c r="K35" s="5">
+        <v>100</v>
+      </c>
+      <c r="L35" s="6">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="5">
+        <v>26.907578558225509</v>
+      </c>
+      <c r="F36" s="5">
+        <v>19.203846978024782</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>11</v>
+      </c>
+      <c r="I36" s="5">
+        <v>24</v>
+      </c>
+      <c r="J36" s="5">
+        <v>40</v>
+      </c>
+      <c r="K36" s="5">
+        <v>104</v>
+      </c>
+      <c r="L36" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5.7079482439926066</v>
+      </c>
+      <c r="F37" s="5">
+        <v>7.468186331285386</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>3</v>
+      </c>
+      <c r="J37" s="5">
+        <v>8</v>
+      </c>
+      <c r="K37" s="5">
+        <v>39</v>
+      </c>
+      <c r="L37" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.11275415896487979</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.38035557511930562</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>2</v>
+      </c>
+      <c r="L38" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="5">
+        <v>21.199630314232898</v>
+      </c>
+      <c r="F39" s="5">
+        <v>15.380389144408859</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>9</v>
+      </c>
+      <c r="I39" s="5">
+        <v>19</v>
+      </c>
+      <c r="J39" s="5">
+        <v>31</v>
+      </c>
+      <c r="K39" s="5">
+        <v>85</v>
+      </c>
+      <c r="L39" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="5">
+        <v>19.214417744916819</v>
+      </c>
+      <c r="F40" s="5">
+        <v>18.18755819853687</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5</v>
+      </c>
+      <c r="I40" s="5">
+        <v>15</v>
+      </c>
+      <c r="J40" s="5">
+        <v>27</v>
+      </c>
+      <c r="K40" s="5">
+        <v>117</v>
+      </c>
+      <c r="L40" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5">
+        <v>49.341959334565622</v>
+      </c>
+      <c r="F41" s="5">
+        <v>38.301671405438618</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>18</v>
+      </c>
+      <c r="I41" s="5">
+        <v>44</v>
+      </c>
+      <c r="J41" s="5">
+        <v>73</v>
+      </c>
+      <c r="K41" s="5">
+        <v>239</v>
+      </c>
+      <c r="L41" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="5">
+        <v>36.451016635859517</v>
+      </c>
+      <c r="F42" s="5">
+        <v>46.75325205446395</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5">
+        <v>18</v>
+      </c>
+      <c r="J42" s="5">
+        <v>46</v>
+      </c>
+      <c r="K42" s="5">
+        <v>267</v>
+      </c>
+      <c r="L42" s="6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.34935304990757848</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.73152842729435463</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>4</v>
+      </c>
+      <c r="L43" s="6">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
